--- a/target/test-classes/testData/Master_Sheet.xlsx
+++ b/target/test-classes/testData/Master_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BYMAT_Automation\WorkSpace\WorkSpace_Photon\SeleniumTraining_B13_MVN\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06295B7-EE55-459F-91C1-9EB7EDB08528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D940CAF7-FA9B-4C9B-8493-A4B0980ED15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="45">
   <si>
     <t xml:space="preserve">Sr. No </t>
   </si>
@@ -73,9 +73,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>Test_Case_04</t>
-  </si>
-  <si>
     <t>Test_Case_05</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>VerifyHomePageOfBymatAutomation1</t>
+  </si>
+  <si>
+    <t>RegisterUserForTheSeleniumTraining2</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -562,7 +562,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -570,13 +570,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -584,13 +584,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -598,13 +598,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -612,19 +612,21 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -636,7 +638,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -648,7 +650,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -660,7 +662,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -672,7 +674,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -684,7 +686,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -696,7 +698,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
@@ -717,10 +719,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4668CBAB-C452-40CE-A283-6DB616929218}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -735,7 +737,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -749,10 +751,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -766,16 +768,16 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>11</v>
@@ -786,7 +788,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -800,10 +802,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -817,16 +819,16 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>11</v>
@@ -837,19 +839,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>11</v>
@@ -860,19 +862,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>11</v>
@@ -883,7 +885,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -897,10 +899,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -914,16 +916,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>11</v>
@@ -934,7 +936,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -948,10 +950,10 @@
         <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -965,21 +967,72 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -991,8 +1044,9 @@
     <hyperlink ref="C9" r:id="rId4" xr:uid="{36DD5D89-36CA-4B9A-A9D1-6373DE784C51}"/>
     <hyperlink ref="C13" r:id="rId5" xr:uid="{3813EA18-F801-44A7-AC06-20BB828F6F03}"/>
     <hyperlink ref="C17" r:id="rId6" xr:uid="{D751F7E4-9179-46D7-82B5-6739CD8927D5}"/>
+    <hyperlink ref="C21" r:id="rId7" xr:uid="{64DD788C-E260-4959-BE67-B2E162F08957}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/target/test-classes/testData/Master_Sheet.xlsx
+++ b/target/test-classes/testData/Master_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BYMAT_Automation\WorkSpace\WorkSpace_Photon\SeleniumTraining_B13_MVN\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BYMAT_Automation\WorkSpace\WorkSpace_Photon\codeBase\SeleniumTraining-B13\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D940CAF7-FA9B-4C9B-8493-A4B0980ED15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C2371D-0C8B-4715-A768-A01515D42A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -587,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>41</v>
@@ -601,7 +601,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>42</v>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4668CBAB-C452-40CE-A283-6DB616929218}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/target/test-classes/testData/Master_Sheet.xlsx
+++ b/target/test-classes/testData/Master_Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BYMAT_Automation\WorkSpace\WorkSpace_Photon\codeBase\SeleniumTraining-B13\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BYMAT_Automation\WorkSpace\WorkSpace_Photon\codeBase\DadaSaheb\SeleniumTraining-B13\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C2371D-0C8B-4715-A768-A01515D42A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB40242E-AE5E-4DC1-8664-E163EAA5EDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,7 +540,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/target/test-classes/testData/Master_Sheet.xlsx
+++ b/target/test-classes/testData/Master_Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BYMAT_Automation\WorkSpace\WorkSpace_Photon\codeBase\SeleniumTraining-B13\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282920F9-542D-418A-A5DF-25E927688457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE78F57-A035-4C58-A9DC-F8A1103FF12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Test_Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$D$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$D$11</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="54">
   <si>
     <t xml:space="preserve">Sr. No </t>
   </si>
@@ -73,33 +73,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>Test_Case_05</t>
-  </si>
-  <si>
-    <t>Test_Case_06</t>
-  </si>
-  <si>
-    <t>Test_Case_07</t>
-  </si>
-  <si>
-    <t>Test_Case_08</t>
-  </si>
-  <si>
-    <t>Test_Case_09</t>
-  </si>
-  <si>
-    <t>Test_Case_10</t>
-  </si>
-  <si>
-    <t>Test_Case_11</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>RegisterUserForTheSeleniumTraining</t>
   </si>
   <si>
@@ -109,42 +82,15 @@
     <t>Pallav</t>
   </si>
   <si>
-    <t>Shrikat</t>
-  </si>
-  <si>
-    <t>DadaSaheb</t>
-  </si>
-  <si>
     <t>pallav@gmail.com</t>
   </si>
   <si>
-    <t>Shrikat@gmail.com</t>
-  </si>
-  <si>
-    <t>DadaSaheb@gmail.com</t>
-  </si>
-  <si>
-    <t>453543535</t>
-  </si>
-  <si>
-    <t>7867867866</t>
-  </si>
-  <si>
     <t>Message_Pallav</t>
   </si>
   <si>
-    <t>Message_Shrikat</t>
-  </si>
-  <si>
-    <t>Message_DadaSaheb</t>
-  </si>
-  <si>
     <t>Phone_No</t>
   </si>
   <si>
-    <t>RegisterUserForTheSeleniumTraining11</t>
-  </si>
-  <si>
     <t>VerifyHomePageOfBymatAutomation</t>
   </si>
   <si>
@@ -164,6 +110,87 @@
   </si>
   <si>
     <t>RegisterUserForTheSeleniumTraining2</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Automated</t>
+  </si>
+  <si>
+    <t>RegisterUserForTheSeleniumTraining3</t>
+  </si>
+  <si>
+    <t>RegisterUserForTheSeleniumTraining4</t>
+  </si>
+  <si>
+    <t>RegisterUserForTheSeleniumTraining5</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Rajesh</t>
+  </si>
+  <si>
+    <t>Sandeep</t>
+  </si>
+  <si>
+    <t>sandeep@gmail.com</t>
+  </si>
+  <si>
+    <t>rahul@gmail.com</t>
+  </si>
+  <si>
+    <t>Message_Rahul</t>
+  </si>
+  <si>
+    <t>Message_Sandeep</t>
+  </si>
+  <si>
+    <t>Message_Rajesh</t>
+  </si>
+  <si>
+    <t>Durga</t>
+  </si>
+  <si>
+    <t>Durga@gmail.com</t>
+  </si>
+  <si>
+    <t>Message_Durga</t>
+  </si>
+  <si>
+    <t>Trupti</t>
+  </si>
+  <si>
+    <t>Trupti@gmail.com</t>
+  </si>
+  <si>
+    <t>Message_Trupti</t>
+  </si>
+  <si>
+    <t>Jayashri</t>
+  </si>
+  <si>
+    <t>Jayashri@gmail.com</t>
+  </si>
+  <si>
+    <t>Message_Jayashri</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>RegisterUserForTheSeleniumTraining6</t>
+  </si>
+  <si>
+    <t>RegisterUserForTheSeleniumTraining7</t>
+  </si>
+  <si>
+    <t>RegisterUserForTheSeleniumTraining8</t>
   </si>
 </sst>
 </file>
@@ -243,7 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -256,6 +283,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -537,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -549,9 +587,11 @@
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="8"/>
+    <col min="6" max="6" width="10.26953125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,151 +602,222 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E16" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D12" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{FDCECF07-78F5-4259-AD99-F14A945DA322}">
@@ -719,14 +830,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4668CBAB-C452-40CE-A283-6DB616929218}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="5.81640625" customWidth="1"/>
     <col min="2" max="2" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
@@ -737,7 +849,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -751,10 +863,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -768,16 +880,16 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>11</v>
@@ -788,7 +900,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -802,10 +914,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -819,16 +931,16 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>11</v>
@@ -838,213 +950,274 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="6" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="3" t="s">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="6" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="3" t="s">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{9E4AE3C2-CCDF-457D-B825-FCB109ADC8AB}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{5F4F7F2A-D165-4D89-B7E8-F4529252345A}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{12F077D4-6918-4B69-B23D-A71C86EC26D2}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{36DD5D89-36CA-4B9A-A9D1-6373DE784C51}"/>
-    <hyperlink ref="C13" r:id="rId5" xr:uid="{3813EA18-F801-44A7-AC06-20BB828F6F03}"/>
-    <hyperlink ref="C17" r:id="rId6" xr:uid="{D751F7E4-9179-46D7-82B5-6739CD8927D5}"/>
-    <hyperlink ref="C21" r:id="rId7" xr:uid="{64DD788C-E260-4959-BE67-B2E162F08957}"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{9E4AE3C2-CCDF-457D-B825-FCB109ADC8AB}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{3813EA18-F801-44A7-AC06-20BB828F6F03}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{D751F7E4-9179-46D7-82B5-6739CD8927D5}"/>
+    <hyperlink ref="C15" r:id="rId4" xr:uid="{64DD788C-E260-4959-BE67-B2E162F08957}"/>
+    <hyperlink ref="C19" r:id="rId5" xr:uid="{BCCBA564-DC2D-4F24-9BBB-2BC89ECA15EE}"/>
+    <hyperlink ref="C23" r:id="rId6" xr:uid="{3762912D-7B8D-41EC-83C1-0F1AE2E17FA0}"/>
+    <hyperlink ref="C27" r:id="rId7" xr:uid="{C0285FB6-0449-4975-9C15-46962C8B890A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
